--- a/config_6.1/act_ty_zp1_config.xlsx
+++ b/config_6.1/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>line</t>
   </si>
@@ -130,13 +130,25 @@
   </si>
   <si>
     <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>"1.</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +157,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>活动时间：</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -154,7 +166,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -163,7 +175,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +184,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>27</t>
+      <t>8:00-6</t>
     </r>
     <r>
       <rPr>
@@ -181,7 +193,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +202,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>8:00-5</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -199,7 +211,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +220,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>10</t>
+      <t>23:59:59</t>
     </r>
     <r>
       <rPr>
@@ -217,7 +229,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -226,7 +238,8 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>23:59:59</t>
+      <t>",
+"2.</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +248,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
     </r>
     <r>
       <rPr>
@@ -245,7 +258,7 @@
         <charset val="134"/>
       </rPr>
       <t>",
-"2.</t>
+"3.</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +267,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
     </r>
     <r>
       <rPr>
@@ -263,30 +276,11 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
       <t>",</t>
     </r>
   </si>
   <si>
-    <t>act_ty_zp1_002</t>
+    <t>act_ty_zp1_003</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -329,10 +323,7 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>czlb_sj_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
+    <t>美的空调</t>
   </si>
   <si>
     <t>ty_icon_flq1</t>
@@ -687,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -732,6 +723,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -739,23 +738,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,7 +762,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,27 +809,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,6 +825,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -821,30 +839,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,20 +853,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -907,181 +898,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,11 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,54 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,6 +1148,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1213,10 +1204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,136 +1216,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1738,7 +1729,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1779,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="13">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>7</v>
@@ -1810,7 +1801,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1851,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1619481600</v>
+        <v>1622505600</v>
       </c>
       <c r="C2" s="9">
-        <v>1620662399</v>
+        <v>1623081599</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>15</v>
@@ -1884,7 +1875,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1922,16 +1913,14 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
-        <v>12031</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1939,19 +1928,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="8">
-        <v>12026</v>
+        <v>12047</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1960,19 +1949,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="8">
-        <v>12027</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1980,19 +1969,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="8">
-        <v>12028</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2000,19 +1989,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="8">
-        <v>12029</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2020,19 +2009,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="8">
-        <v>12030</v>
+        <v>12051</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2040,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2072,28 +2061,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2101,19 +2090,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10527</v>
+        <v>10565</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="10">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -2122,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2130,19 +2119,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10528</v>
+        <v>10566</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2151,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2159,19 +2148,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10529</v>
+        <v>10567</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2180,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2188,19 +2177,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10530</v>
+        <v>10568</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2209,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2217,19 +2206,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10531</v>
+        <v>10569</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2238,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2246,19 +2235,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10532</v>
+        <v>10570</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2267,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2331,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2346,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -2367,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2387,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -2407,13 +2396,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2427,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -2475,28 +2464,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2507,16 +2496,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2525,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2536,16 +2525,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2554,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2565,16 +2554,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2583,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2594,16 +2583,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2612,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2623,16 +2612,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2641,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2652,16 +2641,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2670,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_6.1/act_ty_zp1_config.xlsx
+++ b/config_6.1/act_ty_zp1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>line</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.</t>
     </r>
     <r>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>award_id|奖励ID</t>
+  </si>
+  <si>
+    <t>hllb_mdkt_1</t>
   </si>
   <si>
     <t>美的空调</t>
@@ -678,10 +687,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -698,14 +707,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -717,7 +726,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,7 +741,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,15 +776,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,6 +789,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,37 +823,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -831,6 +839,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -839,15 +856,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,49 +907,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,127 +1075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,17 +1110,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,17 +1151,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,15 +1165,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,6 +1184,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1187,27 +1207,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,138 +1225,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,23 +1387,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,36 +1746,36 @@
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1780,9 +1790,9 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1815,7 +1825,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1824,10 +1834,10 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
@@ -1838,7 +1848,7 @@
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="9">
@@ -1847,10 +1857,10 @@
       <c r="C2" s="9">
         <v>1623081599</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
@@ -1861,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1875,7 +1885,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1909,13 +1919,15 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
@@ -1928,16 +1940,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8">
         <v>12047</v>
@@ -1949,16 +1961,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8">
         <v>12048</v>
@@ -1969,16 +1981,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8">
         <v>12049</v>
@@ -1989,16 +2001,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8">
         <v>12050</v>
@@ -2008,17 +2020,17 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>39</v>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8">
         <v>12051</v>
@@ -2061,28 +2073,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2093,16 +2105,16 @@
         <v>10565</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="10">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -2111,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2122,16 +2134,16 @@
         <v>10566</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2140,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2151,16 +2163,16 @@
         <v>10567</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2169,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2180,16 +2192,16 @@
         <v>10568</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2198,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2209,16 +2221,16 @@
         <v>10569</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2227,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2238,16 +2250,16 @@
         <v>10570</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2256,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2320,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2335,13 +2347,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -2356,13 +2368,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2376,13 +2388,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -2396,13 +2408,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2416,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -2464,28 +2476,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2496,16 +2508,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2514,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2525,16 +2537,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2543,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2554,16 +2566,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2572,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2583,16 +2595,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2601,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2612,16 +2624,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2630,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2641,16 +2653,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2659,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
